--- a/my_lib/holidays/fechas_feriados_ecuador.xlsx
+++ b/my_lib/holidays/fechas_feriados_ecuador.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsanchez\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$161</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="293">
   <si>
     <t>date</t>
   </si>
@@ -79,9 +87,6 @@
     <t>2014-11-02</t>
   </si>
   <si>
-    <t>2014-11-03</t>
-  </si>
-  <si>
     <t>2014-12-25</t>
   </si>
   <si>
@@ -100,36 +105,21 @@
     <t>2015-01-02</t>
   </si>
   <si>
-    <t>2015-01-10</t>
-  </si>
-  <si>
     <t>2015-02-16</t>
   </si>
   <si>
     <t>2015-02-17</t>
   </si>
   <si>
-    <t>2015-03-12</t>
-  </si>
-  <si>
-    <t>2015-03-02</t>
-  </si>
-  <si>
     <t>2015-04-03</t>
   </si>
   <si>
-    <t>2015-04-12</t>
-  </si>
-  <si>
     <t>2015-05-01</t>
   </si>
   <si>
     <t>2015-05-24</t>
   </si>
   <si>
-    <t>2015-06-25</t>
-  </si>
-  <si>
     <t>2015-07-25</t>
   </si>
   <si>
@@ -145,39 +135,12 @@
     <t>2015-08-10</t>
   </si>
   <si>
-    <t>2015-08-05</t>
-  </si>
-  <si>
-    <t>2015-08-24</t>
-  </si>
-  <si>
     <t>2015-10-09</t>
   </si>
   <si>
-    <t>2015-10-18</t>
-  </si>
-  <si>
-    <t>2015-10-16</t>
-  </si>
-  <si>
     <t>2015-11-02</t>
   </si>
   <si>
-    <t>2015-11-03</t>
-  </si>
-  <si>
-    <t>2015-11-12</t>
-  </si>
-  <si>
-    <t>2015-11-18</t>
-  </si>
-  <si>
-    <t>2015-11-06</t>
-  </si>
-  <si>
-    <t>2015-11-04</t>
-  </si>
-  <si>
     <t>2015-12-25</t>
   </si>
   <si>
@@ -223,9 +186,6 @@
     <t>2016-11-02</t>
   </si>
   <si>
-    <t>2016-11-03</t>
-  </si>
-  <si>
     <t>2016-11-04</t>
   </si>
   <si>
@@ -316,9 +276,6 @@
     <t>2018-11-02</t>
   </si>
   <si>
-    <t>2018-11-01</t>
-  </si>
-  <si>
     <t>2018-12-25</t>
   </si>
   <si>
@@ -439,9 +396,6 @@
     <t>2019-11-03</t>
   </si>
   <si>
-    <t>2019-11-04</t>
-  </si>
-  <si>
     <t>2019-12-25</t>
   </si>
   <si>
@@ -496,9 +450,6 @@
     <t>2020-11-02</t>
   </si>
   <si>
-    <t>2020-11-03</t>
-  </si>
-  <si>
     <t>2020-12-25</t>
   </si>
   <si>
@@ -643,9 +594,6 @@
     <t>Este año en Ecuador el día de los difuntos se festeja el lunes 2 de novimbre, que junto a las fiestas de Cuenca que son el 3 de noviembre nos dan un total de 4 días de feriado.</t>
   </si>
   <si>
-    <t>Las tradicionales fiestas de Cuenca se celebran el 3 de noviembre, pero vienen acompañadas por el día de los difuntos del 2 de noviembre y el fin de semana, dando 4 días de descanso para los ecuatorianos.</t>
-  </si>
-  <si>
     <t>En esta navidad el Ecuador tiene 3 días para celebrar, ya que el 25 de diciembre es viernes y se suma al fin de semana.</t>
   </si>
   <si>
@@ -673,9 +621,6 @@
     <t>El miércoles 2 de Noviembre se celebra el día de los difuntos,este feriado no es recuperable, junto con las fiestas de Cuenca por su independencia y al viernes 4 que es un puente vacacional forman el feriado más largo del 2016, con 5 días.</t>
   </si>
   <si>
-    <t>Se celebra el jueves 3 de Noviembre, que junto al día de los difuntos (Miércoles 2 de Noviembre)  y al puente vacacional recuperable del viernes 4 de Noviembre decretado por la presidencia forman un feriado de 5 días.</t>
-  </si>
-  <si>
     <t>Por decreto presidencial se decretó feriado al Viernes 4 de Noviembre, con el fin de dar unas largas fiestas a los ecuatorianos uniendo este dia a las fiestas por la independencia de Cuenca y día de los difuntos.</t>
   </si>
   <si>
@@ -706,9 +651,6 @@
     <t>Inicia Jueves, día propio de la conmemoración y se ata con la Independencia de Cuenca y el fin de semana.</t>
   </si>
   <si>
-    <t>Cae viernes. La fecha propia es el 3 Nov. pero se ata con el Día de los Difuntos (2 Nov) y el fin de semana para hacer cuatro días de descanso.</t>
-  </si>
-  <si>
     <t>Se suma el fin de semana al lunes 25 para hacer tres días de celebración Navideña.</t>
   </si>
   <si>
@@ -724,9 +666,6 @@
     <t>Genera día de descanso en viernes para atarse con el fin de semana.</t>
   </si>
   <si>
-    <t>Cae sábado 3 de noviembre, se pasa al jueves 1 conforme lo dispuesto en la Ley de Feriados para 2018.</t>
-  </si>
-  <si>
     <t>Cae martes y es día de descanso no recuperable, solo esta fecha.</t>
   </si>
   <si>
@@ -772,9 +711,6 @@
     <t>Se celebra el sábado 2 de noviembre, se traslada al viernes conforme la ley de feriados nacionales.</t>
   </si>
   <si>
-    <t>Se celebra el domingo 3 de noviembre, se traslada al lunes conforme la ley de feriados nacionales.</t>
-  </si>
-  <si>
     <t>Las familias cristianas se reúnen y conmemoran el natalicio de Jesús de Nazaret.</t>
   </si>
   <si>
@@ -802,9 +738,6 @@
     <t>La conmemoración se caracteriza por una mezcla de tradiciones y costumbres ancestrales.</t>
   </si>
   <si>
-    <t>La ciudad de Cuenca declara su independencia de la corona española un 3 de noviembre 1820.</t>
-  </si>
-  <si>
     <t>Enero</t>
   </si>
   <si>
@@ -832,9 +765,6 @@
     <t>Febrero</t>
   </si>
   <si>
-    <t>Junio</t>
-  </si>
-  <si>
     <t>Julio</t>
   </si>
   <si>
@@ -862,42 +792,21 @@
     <t>Día de los Difuntos</t>
   </si>
   <si>
-    <t>Independencia de Cuenca</t>
-  </si>
-  <si>
     <t>Navidad tendrá 4 días de descanso</t>
   </si>
   <si>
     <t>Año nuevo</t>
   </si>
   <si>
-    <t>Independencia de Durán</t>
-  </si>
-  <si>
     <t>Feriado de Carnaval</t>
   </si>
   <si>
-    <t>Fundación de Portoviejo</t>
-  </si>
-  <si>
-    <t>Fundación de Manta</t>
-  </si>
-  <si>
     <t>Feriado Viernes Santo</t>
   </si>
   <si>
-    <t>Fundación de Cuenca</t>
-  </si>
-  <si>
     <t>Día del Trabajo</t>
   </si>
   <si>
-    <t>Independencia de Machala</t>
-  </si>
-  <si>
-    <t>Fundación de Machala</t>
-  </si>
-  <si>
     <t>Fundación de Guayaquil</t>
   </si>
   <si>
@@ -905,33 +814,6 @@
   </si>
   <si>
     <t>Visita del Papa Francisco</t>
-  </si>
-  <si>
-    <t>independencia de Esmeraldas</t>
-  </si>
-  <si>
-    <t>Fundación de Ambato</t>
-  </si>
-  <si>
-    <t>Fundación de Esmeraldas</t>
-  </si>
-  <si>
-    <t>Independencia de Porto Viejo</t>
-  </si>
-  <si>
-    <t>Fundación de Duran</t>
-  </si>
-  <si>
-    <t>Independencia de Ambato</t>
-  </si>
-  <si>
-    <t>Independencia de Loja</t>
-  </si>
-  <si>
-    <t>Independencia de Santo Domingo</t>
-  </si>
-  <si>
-    <t>Independencia de Manta</t>
   </si>
   <si>
     <t>Feriado Navidad</t>
@@ -1024,8 +906,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1088,11 +970,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1134,7 +1024,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1166,9 +1056,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1200,6 +1091,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1375,14 +1267,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A136"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.88671875" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1408,7 +1310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1416,25 +1318,25 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="D2" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="F2" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="G2" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="H2" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="I2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1442,25 +1344,25 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D3" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="F3" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="G3" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="H3" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="I3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1468,25 +1370,25 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="D4" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="F4" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="G4" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="H4" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="I4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1494,25 +1396,25 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="D5" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="F5" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="G5" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="H5" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="I5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1520,25 +1422,25 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="D6" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="F6" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="G6" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="H6" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="I6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1546,25 +1448,25 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="D7" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="F7" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="G7" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="H7" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="I7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1572,25 +1474,25 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="D8" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="F8" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="G8" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="H8" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I8" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1598,25 +1500,25 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="D9" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="F9" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="G9" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="H9" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1624,25 +1526,25 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="D10" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="F10" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="G10" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="H10" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1650,22 +1552,22 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="D11" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="F11" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="G11" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="I11" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1673,22 +1575,22 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="D12" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="F12" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="G12" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="I12" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1696,22 +1598,22 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="D13" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="F13" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="G13" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="I13" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1719,25 +1621,25 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="D14" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="F14" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="G14" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="H14" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I14" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1745,25 +1647,22 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D15" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="F15" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="G15" t="s">
-        <v>282</v>
-      </c>
-      <c r="H15" t="s">
-        <v>327</v>
+        <v>256</v>
       </c>
       <c r="I15" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1771,22 +1670,22 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="D16" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="F16" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="G16" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="I16" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1794,22 +1693,22 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="D17" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="F17" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="G17" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="I17" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1817,22 +1716,22 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D18" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="F18" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="G18" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="I18" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1840,22 +1739,28 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="D19" t="s">
-        <v>198</v>
+        <v>180</v>
+      </c>
+      <c r="E19" t="s">
+        <v>181</v>
       </c>
       <c r="F19" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="G19" t="s">
-        <v>283</v>
+        <v>257</v>
+      </c>
+      <c r="H19" t="s">
+        <v>284</v>
       </c>
       <c r="I19" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1863,28 +1768,28 @@
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D20" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="E20" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="F20" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="G20" t="s">
+        <v>257</v>
+      </c>
+      <c r="H20" t="s">
         <v>284</v>
       </c>
-      <c r="H20" t="s">
-        <v>326</v>
-      </c>
       <c r="I20" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1892,28 +1797,28 @@
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="D21" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="E21" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="F21" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="G21" t="s">
+        <v>258</v>
+      </c>
+      <c r="H21" t="s">
         <v>284</v>
       </c>
-      <c r="H21" t="s">
-        <v>326</v>
-      </c>
       <c r="I21" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1921,25 +1826,28 @@
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D22" t="s">
-        <v>197</v>
+        <v>176</v>
+      </c>
+      <c r="E22" t="s">
+        <v>182</v>
       </c>
       <c r="F22" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="G22" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="H22" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="I22" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1947,28 +1855,28 @@
         <v>29</v>
       </c>
       <c r="C23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" t="s">
         <v>177</v>
       </c>
-      <c r="D23" t="s">
-        <v>194</v>
-      </c>
       <c r="E23" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="F23" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="G23" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="H23" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="I23" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1976,28 +1884,28 @@
         <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="D24" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="E24" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="F24" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="G24" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="H24" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="I24" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2005,25 +1913,28 @@
         <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="D25" t="s">
-        <v>199</v>
+        <v>179</v>
+      </c>
+      <c r="E25" t="s">
+        <v>185</v>
       </c>
       <c r="F25" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G25" t="s">
+        <v>252</v>
+      </c>
+      <c r="H25" t="s">
+        <v>285</v>
+      </c>
+      <c r="I25" t="s">
         <v>287</v>
       </c>
-      <c r="H25" t="s">
-        <v>327</v>
-      </c>
-      <c r="I25" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2031,25 +1942,25 @@
         <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="D26" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="F26" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="G26" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H26" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I26" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2057,28 +1968,25 @@
         <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E27" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="F27" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="G27" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="H27" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I27" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2086,25 +1994,28 @@
         <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D28" t="s">
-        <v>198</v>
+        <v>175</v>
+      </c>
+      <c r="E28" t="s">
+        <v>186</v>
       </c>
       <c r="F28" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="G28" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="H28" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="I28" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2112,28 +2023,28 @@
         <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D29" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="E29" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="F29" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="G29" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="H29" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="I29" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2141,28 +2052,28 @@
         <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="D30" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="E30" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="F30" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="G30" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="H30" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I30" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2170,3745 +2081,3134 @@
         <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D31" t="s">
-        <v>199</v>
+        <v>177</v>
+      </c>
+      <c r="E31" t="s">
+        <v>188</v>
       </c>
       <c r="F31" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="G31" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="H31" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I31" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="D32" t="s">
-        <v>199</v>
+        <v>175</v>
+      </c>
+      <c r="E32" t="s">
+        <v>189</v>
       </c>
       <c r="F32" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="G32" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="H32" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I32" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D33" t="s">
-        <v>197</v>
+        <v>177</v>
+      </c>
+      <c r="E33" t="s">
+        <v>190</v>
       </c>
       <c r="F33" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="G33" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="H33" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I33" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D34" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="F34" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="G34" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="H34" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I34" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="D35" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="E35" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="F35" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="G35" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="H35" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="I35" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="D36" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="E36" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="F36" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="G36" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="H36" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="I36" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D37" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="E37" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="F37" t="s">
+        <v>246</v>
+      </c>
+      <c r="G37" t="s">
         <v>267</v>
       </c>
-      <c r="G37" t="s">
-        <v>279</v>
-      </c>
       <c r="H37" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="I37" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="D38" t="s">
+        <v>177</v>
+      </c>
+      <c r="E38" t="s">
         <v>193</v>
       </c>
       <c r="F38" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="G38" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="H38" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I38" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="D39" t="s">
+        <v>179</v>
+      </c>
+      <c r="E39" t="s">
         <v>194</v>
       </c>
       <c r="F39" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="G39" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="H39" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I39" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="D40" t="s">
-        <v>193</v>
+        <v>177</v>
+      </c>
+      <c r="E40" t="s">
+        <v>195</v>
       </c>
       <c r="F40" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="G40" t="s">
-        <v>299</v>
+        <v>252</v>
       </c>
       <c r="H40" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I40" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="D41" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="E41" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F41" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="G41" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="H41" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I41" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
         <v>165</v>
       </c>
       <c r="D42" t="s">
-        <v>198</v>
+        <v>179</v>
+      </c>
+      <c r="E42" t="s">
+        <v>195</v>
       </c>
       <c r="F42" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="G42" t="s">
-        <v>300</v>
+        <v>252</v>
       </c>
       <c r="H42" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I42" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" t="s">
         <v>177</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>196</v>
       </c>
       <c r="F43" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="G43" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="H43" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I43" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D44" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="E44" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="F44" t="s">
+        <v>242</v>
+      </c>
+      <c r="G44" t="s">
         <v>269</v>
       </c>
-      <c r="G44" t="s">
-        <v>281</v>
-      </c>
       <c r="H44" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I44" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D45" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="E45" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="F45" t="s">
+        <v>242</v>
+      </c>
+      <c r="G45" t="s">
         <v>269</v>
       </c>
-      <c r="G45" t="s">
-        <v>282</v>
-      </c>
       <c r="H45" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I45" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D46" t="s">
-        <v>199</v>
+        <v>179</v>
+      </c>
+      <c r="E46" t="s">
+        <v>197</v>
       </c>
       <c r="F46" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="G46" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="H46" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I46" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D47" t="s">
-        <v>193</v>
+        <v>174</v>
+      </c>
+      <c r="E47" t="s">
+        <v>198</v>
       </c>
       <c r="F47" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="G47" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="H47" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I47" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="D48" t="s">
-        <v>196</v>
+        <v>177</v>
+      </c>
+      <c r="E48" t="s">
+        <v>199</v>
       </c>
       <c r="F48" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="G48" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="H48" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="I48" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D49" t="s">
-        <v>193</v>
+        <v>175</v>
+      </c>
+      <c r="E49" t="s">
+        <v>200</v>
       </c>
       <c r="F49" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="G49" t="s">
-        <v>305</v>
+        <v>264</v>
       </c>
       <c r="H49" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I49" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="D50" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="E50" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F50" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="G50" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="H50" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I50" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
+        <v>155</v>
+      </c>
+      <c r="D51" t="s">
         <v>179</v>
       </c>
-      <c r="D51" t="s">
-        <v>198</v>
+      <c r="E51" t="s">
+        <v>202</v>
       </c>
       <c r="F51" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="G51" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="H51" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I51" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D52" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="E52" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F52" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="G52" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="H52" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I52" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="D53" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="E53" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="F53" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="G53" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="H53" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="I53" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="D54" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="E54" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="F54" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="G54" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="H54" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="I54" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D55" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="E55" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="F55" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="G55" t="s">
+        <v>275</v>
+      </c>
+      <c r="H55" t="s">
+        <v>285</v>
+      </c>
+      <c r="I55" t="s">
         <v>289</v>
       </c>
-      <c r="H55" t="s">
-        <v>327</v>
-      </c>
-      <c r="I55" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D56" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="E56" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="F56" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="G56" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="H56" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I56" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C57" t="s">
+        <v>143</v>
+      </c>
+      <c r="D57" t="s">
         <v>175</v>
       </c>
-      <c r="D57" t="s">
-        <v>196</v>
-      </c>
       <c r="E57" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="F57" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="G57" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="H57" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I57" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="D58" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="E58" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="F58" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="G58" t="s">
-        <v>278</v>
-      </c>
-      <c r="H58" t="s">
-        <v>327</v>
+        <v>252</v>
       </c>
       <c r="I58" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="D59" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="E59" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="F59" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="G59" t="s">
-        <v>278</v>
-      </c>
-      <c r="H59" t="s">
-        <v>327</v>
+        <v>252</v>
       </c>
       <c r="I59" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="D60" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="E60" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="F60" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="G60" t="s">
-        <v>311</v>
-      </c>
-      <c r="H60" t="s">
-        <v>327</v>
+        <v>252</v>
       </c>
       <c r="I60" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="D61" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="E61" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="F61" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="G61" t="s">
-        <v>311</v>
+        <v>253</v>
       </c>
       <c r="H61" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I61" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="D62" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="E62" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="F62" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="G62" t="s">
-        <v>311</v>
+        <v>253</v>
       </c>
       <c r="H62" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I62" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="D63" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="E63" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="F63" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="G63" t="s">
-        <v>312</v>
+        <v>253</v>
       </c>
       <c r="H63" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I63" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C64" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D64" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="E64" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="F64" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="G64" t="s">
-        <v>313</v>
+        <v>254</v>
       </c>
       <c r="H64" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I64" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C65" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D65" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="E65" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="F65" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="G65" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="H65" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="I65" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="D66" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="E66" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="F66" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="G66" t="s">
-        <v>314</v>
+        <v>255</v>
       </c>
       <c r="H66" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="I66" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C67" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="D67" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="E67" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="F67" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="G67" t="s">
-        <v>306</v>
+        <v>255</v>
       </c>
       <c r="H67" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I67" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C68" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D68" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="E68" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="F68" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="G68" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="H68" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I68" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C69" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D69" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="E69" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="F69" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="G69" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="H69" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I69" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C70" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="D70" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="E70" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="F70" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="G70" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="H70" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I70" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C71" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="D71" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="E71" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="F71" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="G71" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="H71" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I71" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C72" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D72" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="E72" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="F72" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="G72" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="H72" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I72" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C73" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D73" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="E73" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="F73" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="G73" t="s">
-        <v>317</v>
+        <v>253</v>
       </c>
       <c r="H73" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I73" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C74" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="D74" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="E74" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="F74" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="G74" t="s">
-        <v>317</v>
+        <v>253</v>
       </c>
       <c r="H74" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I74" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D75" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="E75" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="F75" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="G75" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="H75" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I75" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C76" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D76" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="E76" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="F76" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="G76" t="s">
-        <v>278</v>
+        <v>254</v>
+      </c>
+      <c r="H76" t="s">
+        <v>285</v>
       </c>
       <c r="I76" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C77" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="D77" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="E77" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="F77" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="G77" t="s">
-        <v>278</v>
+        <v>255</v>
+      </c>
+      <c r="H77" t="s">
+        <v>285</v>
       </c>
       <c r="I77" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C78" t="s">
+        <v>154</v>
+      </c>
+      <c r="D78" t="s">
         <v>176</v>
       </c>
-      <c r="D78" t="s">
-        <v>198</v>
-      </c>
       <c r="E78" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F78" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="G78" t="s">
-        <v>278</v>
+        <v>276</v>
+      </c>
+      <c r="H78" t="s">
+        <v>285</v>
       </c>
       <c r="I78" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C79" t="s">
         <v>170</v>
       </c>
       <c r="D79" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="E79" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="F79" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="G79" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H79" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I79" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C80" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="D80" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="E80" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="F80" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="G80" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H80" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I80" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C81" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="D81" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="E81" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F81" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="G81" t="s">
         <v>279</v>
       </c>
       <c r="H81" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I81" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C82" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="D82" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="E82" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F82" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="G82" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H82" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I82" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C83" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="D83" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="E83" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="F83" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="G83" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H83" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I83" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C84" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D84" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="E84" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="F84" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="G84" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H84" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I84" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C85" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D85" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="E85" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="F85" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="G85" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H85" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I85" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C86" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D86" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="E86" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="F86" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="G86" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H86" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I86" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C87" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="D87" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="E87" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="F87" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="G87" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="H87" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I87" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C88" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D88" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="E88" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="F88" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="G88" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H88" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="I88" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C89" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D89" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="E89" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="F89" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="G89" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H89" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="I89" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C90" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D90" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="E90" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="F90" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="G90" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H90" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="I90" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C91" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="D91" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="E91" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="F91" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="G91" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
       <c r="H91" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I91" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C92" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="D92" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="E92" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="F92" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="G92" t="s">
-        <v>318</v>
+        <v>252</v>
       </c>
       <c r="H92" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I92" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C93" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="D93" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="E93" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="F93" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="G93" t="s">
-        <v>318</v>
+        <v>252</v>
       </c>
       <c r="H93" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I93" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C94" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="D94" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="E94" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F94" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="G94" t="s">
-        <v>319</v>
+        <v>252</v>
       </c>
       <c r="H94" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I94" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C95" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="D95" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="E95" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="F95" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="G95" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="H95" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I95" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C96" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="D96" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="E96" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="F96" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="G96" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="H96" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I96" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C97" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="D97" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="E97" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="F97" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="G97" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="H97" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I97" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C98" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="D98" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="E98" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="F98" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="G98" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="H98" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I98" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C99" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D99" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="E99" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="F99" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="G99" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="H99" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I99" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C100" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="D100" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="E100" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="F100" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="G100" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H100" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I100" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C101" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="D101" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="E101" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="F101" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="G101" t="s">
-        <v>318</v>
+        <v>281</v>
       </c>
       <c r="H101" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I101" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C102" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="D102" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="E102" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="F102" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="G102" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="H102" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I102" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C103" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="D103" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="E103" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="F103" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="G103" t="s">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="H103" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I103" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C104" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="D104" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="E104" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="F104" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="G104" t="s">
-        <v>321</v>
+        <v>260</v>
       </c>
       <c r="H104" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I104" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C105" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D105" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="E105" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="F105" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="G105" t="s">
-        <v>321</v>
+        <v>260</v>
       </c>
       <c r="H105" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I105" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C106" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="D106" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="E106" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="F106" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="G106" t="s">
-        <v>321</v>
+        <v>252</v>
       </c>
       <c r="H106" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I106" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C107" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="D107" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="E107" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="F107" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="G107" t="s">
-        <v>321</v>
+        <v>252</v>
       </c>
       <c r="H107" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I107" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C108" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="D108" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="E108" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F108" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G108" t="s">
-        <v>317</v>
+        <v>252</v>
       </c>
       <c r="H108" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I108" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C109" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="D109" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="E109" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F109" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="G109" t="s">
-        <v>317</v>
+        <v>253</v>
       </c>
       <c r="H109" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I109" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C110" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D110" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="E110" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F110" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="G110" t="s">
-        <v>317</v>
+        <v>253</v>
       </c>
       <c r="H110" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I110" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C111" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="D111" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="E111" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="F111" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="G111" t="s">
-        <v>322</v>
+        <v>253</v>
       </c>
       <c r="H111" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="I111" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C112" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="D112" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="E112" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="F112" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="G112" t="s">
-        <v>322</v>
+        <v>254</v>
       </c>
       <c r="H112" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="I112" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C113" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="D113" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="E113" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="F113" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="G113" t="s">
-        <v>322</v>
+        <v>254</v>
       </c>
       <c r="H113" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="I113" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C114" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D114" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="E114" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="F114" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="G114" t="s">
-        <v>322</v>
+        <v>254</v>
       </c>
       <c r="H114" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I114" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C115" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="D115" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="E115" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="F115" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="G115" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="H115" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I115" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C116" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="D116" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="E116" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="F116" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="G116" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="H116" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I116" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C117" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="D117" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="E117" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="F117" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="G117" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="H117" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I117" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C118" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D118" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="E118" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="F118" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="G118" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="H118" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I118" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C119" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="D119" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="E119" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="F119" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="G119" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H119" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I119" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C120" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="D120" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="E120" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="F120" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="G120" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H120" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I120" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C121" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D121" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="E121" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="F121" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="G121" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H121" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I121" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C122" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="D122" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="E122" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="F122" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="G122" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H122" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I122" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C123" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D123" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="E123" t="s">
+        <v>231</v>
+      </c>
+      <c r="F123" t="s">
         <v>246</v>
       </c>
-      <c r="F123" t="s">
-        <v>265</v>
-      </c>
       <c r="G123" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="H123" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I123" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C124" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="D124" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="E124" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="F124" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="G124" t="s">
-        <v>323</v>
+        <v>281</v>
       </c>
       <c r="H124" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I124" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C125" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="D125" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="E125" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="F125" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="G125" t="s">
-        <v>323</v>
+        <v>281</v>
       </c>
       <c r="H125" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I125" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C126" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D126" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="F126" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="G126" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="H126" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I126" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C127" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D127" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="F127" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="G127" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="H127" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I127" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C128" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="D128" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="E128" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="F128" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="G128" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="H128" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I128" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C129" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="D129" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="E129" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="F129" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="G129" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="H129" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I129" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C130" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D130" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="E130" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="F130" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="G130" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="H130" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I130" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C131" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="D131" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="E131" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="F131" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="G131" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="H131" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I131" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C132" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="D132" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="E132" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="F132" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="G132" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="H132" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I132" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C133" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="D133" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="E133" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="F133" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="G133" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="H133" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I133" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C134" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="D134" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="E134" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="F134" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="G134" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="H134" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I134" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C135" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="D135" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="E135" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="G135" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="H135" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I135" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C136" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="D136" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="E136" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="F136" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="G136" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H136" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I136" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
-      <c r="B137" t="s">
-        <v>137</v>
-      </c>
-      <c r="C137" t="s">
-        <v>185</v>
-      </c>
-      <c r="D137" t="s">
-        <v>198</v>
-      </c>
-      <c r="E137" t="s">
-        <v>250</v>
-      </c>
-      <c r="F137" t="s">
-        <v>268</v>
-      </c>
-      <c r="G137" t="s">
-        <v>280</v>
-      </c>
-      <c r="H137" t="s">
-        <v>327</v>
-      </c>
-      <c r="I137" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
-      <c r="B138" t="s">
-        <v>138</v>
-      </c>
-      <c r="C138" t="s">
-        <v>162</v>
-      </c>
-      <c r="D138" t="s">
-        <v>196</v>
-      </c>
-      <c r="E138" t="s">
-        <v>251</v>
-      </c>
-      <c r="F138" t="s">
-        <v>269</v>
-      </c>
-      <c r="G138" t="s">
-        <v>281</v>
-      </c>
-      <c r="H138" t="s">
-        <v>327</v>
-      </c>
-      <c r="I138" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
-      <c r="A139" s="1">
-        <v>137</v>
-      </c>
-      <c r="B139" t="s">
-        <v>139</v>
-      </c>
-      <c r="C139" t="s">
-        <v>172</v>
-      </c>
-      <c r="D139" t="s">
-        <v>197</v>
-      </c>
-      <c r="E139" t="s">
-        <v>251</v>
-      </c>
-      <c r="F139" t="s">
-        <v>269</v>
-      </c>
-      <c r="G139" t="s">
-        <v>281</v>
-      </c>
-      <c r="H139" t="s">
-        <v>327</v>
-      </c>
-      <c r="I139" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
-      <c r="A140" s="1">
-        <v>138</v>
-      </c>
-      <c r="B140" t="s">
-        <v>140</v>
-      </c>
-      <c r="C140" t="s">
-        <v>163</v>
-      </c>
-      <c r="D140" t="s">
-        <v>198</v>
-      </c>
-      <c r="E140" t="s">
-        <v>251</v>
-      </c>
-      <c r="F140" t="s">
-        <v>269</v>
-      </c>
-      <c r="G140" t="s">
-        <v>281</v>
-      </c>
-      <c r="H140" t="s">
-        <v>327</v>
-      </c>
-      <c r="I140" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
-      <c r="B141" t="s">
-        <v>141</v>
-      </c>
-      <c r="C141" t="s">
-        <v>164</v>
-      </c>
-      <c r="D141" t="s">
-        <v>194</v>
-      </c>
-      <c r="E141" t="s">
-        <v>252</v>
-      </c>
-      <c r="F141" t="s">
-        <v>269</v>
-      </c>
-      <c r="G141" t="s">
-        <v>282</v>
-      </c>
-      <c r="H141" t="s">
-        <v>327</v>
-      </c>
-      <c r="I141" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="B142" t="s">
-        <v>142</v>
-      </c>
-      <c r="C142" t="s">
-        <v>173</v>
-      </c>
-      <c r="D142" t="s">
-        <v>193</v>
-      </c>
-      <c r="E142" t="s">
-        <v>253</v>
-      </c>
-      <c r="F142" t="s">
-        <v>270</v>
-      </c>
-      <c r="G142" t="s">
-        <v>318</v>
-      </c>
-      <c r="H142" t="s">
-        <v>327</v>
-      </c>
-      <c r="I142" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
-      <c r="A143" s="1">
-        <v>141</v>
-      </c>
-      <c r="B143" t="s">
-        <v>143</v>
-      </c>
-      <c r="C143" t="s">
-        <v>162</v>
-      </c>
-      <c r="D143" t="s">
-        <v>193</v>
-      </c>
-      <c r="E143" t="s">
-        <v>254</v>
-      </c>
-      <c r="F143" t="s">
-        <v>263</v>
-      </c>
-      <c r="G143" t="s">
-        <v>324</v>
-      </c>
-      <c r="H143" t="s">
-        <v>327</v>
-      </c>
-      <c r="I143" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
-      <c r="A144" s="1">
-        <v>142</v>
-      </c>
-      <c r="B144" t="s">
-        <v>144</v>
-      </c>
-      <c r="C144" t="s">
-        <v>192</v>
-      </c>
-      <c r="D144" t="s">
-        <v>197</v>
-      </c>
-      <c r="E144" t="s">
-        <v>255</v>
-      </c>
-      <c r="F144" t="s">
-        <v>271</v>
-      </c>
-      <c r="G144" t="s">
-        <v>325</v>
-      </c>
-      <c r="H144" t="s">
-        <v>327</v>
-      </c>
-      <c r="I144" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
-      <c r="A145" s="1">
-        <v>143</v>
-      </c>
-      <c r="B145" t="s">
-        <v>145</v>
-      </c>
-      <c r="C145" t="s">
-        <v>188</v>
-      </c>
-      <c r="D145" t="s">
-        <v>198</v>
-      </c>
-      <c r="E145" t="s">
-        <v>255</v>
-      </c>
-      <c r="F145" t="s">
-        <v>271</v>
-      </c>
-      <c r="G145" t="s">
-        <v>325</v>
-      </c>
-      <c r="H145" t="s">
-        <v>327</v>
-      </c>
-      <c r="I145" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
-      <c r="A146" s="1">
-        <v>144</v>
-      </c>
-      <c r="B146" t="s">
-        <v>146</v>
-      </c>
-      <c r="C146" t="s">
-        <v>168</v>
-      </c>
-      <c r="D146" t="s">
-        <v>194</v>
-      </c>
-      <c r="E146" t="s">
-        <v>255</v>
-      </c>
-      <c r="F146" t="s">
-        <v>271</v>
-      </c>
-      <c r="G146" t="s">
-        <v>325</v>
-      </c>
-      <c r="H146" t="s">
-        <v>327</v>
-      </c>
-      <c r="I146" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
-      <c r="A147" s="1">
-        <v>145</v>
-      </c>
-      <c r="B147" t="s">
-        <v>147</v>
-      </c>
-      <c r="C147" t="s">
-        <v>173</v>
-      </c>
-      <c r="D147" t="s">
-        <v>195</v>
-      </c>
-      <c r="E147" t="s">
-        <v>255</v>
-      </c>
-      <c r="F147" t="s">
-        <v>271</v>
-      </c>
-      <c r="G147" t="s">
-        <v>325</v>
-      </c>
-      <c r="H147" t="s">
-        <v>327</v>
-      </c>
-      <c r="I147" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
-      <c r="A148" s="1">
-        <v>146</v>
-      </c>
-      <c r="B148" t="s">
-        <v>148</v>
-      </c>
-      <c r="C148" t="s">
-        <v>169</v>
-      </c>
-      <c r="D148" t="s">
-        <v>196</v>
-      </c>
-      <c r="E148" t="s">
-        <v>256</v>
-      </c>
-      <c r="F148" t="s">
-        <v>265</v>
-      </c>
-      <c r="G148" t="s">
-        <v>323</v>
-      </c>
-      <c r="H148" t="s">
-        <v>327</v>
-      </c>
-      <c r="I148" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="B149" t="s">
-        <v>149</v>
-      </c>
-      <c r="C149" t="s">
-        <v>170</v>
-      </c>
-      <c r="D149" t="s">
-        <v>197</v>
-      </c>
-      <c r="E149" t="s">
-        <v>256</v>
-      </c>
-      <c r="F149" t="s">
-        <v>265</v>
-      </c>
-      <c r="G149" t="s">
-        <v>323</v>
-      </c>
-      <c r="H149" t="s">
-        <v>327</v>
-      </c>
-      <c r="I149" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
-      <c r="B150" t="s">
-        <v>150</v>
-      </c>
-      <c r="C150" t="s">
-        <v>171</v>
-      </c>
-      <c r="D150" t="s">
-        <v>198</v>
-      </c>
-      <c r="E150" t="s">
-        <v>256</v>
-      </c>
-      <c r="F150" t="s">
-        <v>265</v>
-      </c>
-      <c r="G150" t="s">
-        <v>323</v>
-      </c>
-      <c r="H150" t="s">
-        <v>327</v>
-      </c>
-      <c r="I150" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
-      <c r="A151" s="1">
-        <v>149</v>
-      </c>
-      <c r="B151" t="s">
-        <v>151</v>
-      </c>
-      <c r="C151" t="s">
-        <v>162</v>
-      </c>
-      <c r="D151" t="s">
-        <v>196</v>
-      </c>
-      <c r="E151" t="s">
-        <v>257</v>
-      </c>
-      <c r="F151" t="s">
-        <v>266</v>
-      </c>
-      <c r="G151" t="s">
-        <v>291</v>
-      </c>
-      <c r="H151" t="s">
-        <v>327</v>
-      </c>
-      <c r="I151" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="B152" t="s">
-        <v>152</v>
-      </c>
-      <c r="C152" t="s">
-        <v>172</v>
-      </c>
-      <c r="D152" t="s">
-        <v>197</v>
-      </c>
-      <c r="E152" t="s">
-        <v>257</v>
-      </c>
-      <c r="F152" t="s">
-        <v>266</v>
-      </c>
-      <c r="G152" t="s">
-        <v>291</v>
-      </c>
-      <c r="H152" t="s">
-        <v>327</v>
-      </c>
-      <c r="I152" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
-      <c r="A153" s="1">
-        <v>151</v>
-      </c>
-      <c r="B153" t="s">
-        <v>153</v>
-      </c>
-      <c r="C153" t="s">
-        <v>163</v>
-      </c>
-      <c r="D153" t="s">
-        <v>198</v>
-      </c>
-      <c r="E153" t="s">
-        <v>257</v>
-      </c>
-      <c r="F153" t="s">
-        <v>266</v>
-      </c>
-      <c r="G153" t="s">
-        <v>291</v>
-      </c>
-      <c r="H153" t="s">
-        <v>327</v>
-      </c>
-      <c r="I153" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
-      <c r="A154" s="1">
-        <v>152</v>
-      </c>
-      <c r="B154" t="s">
-        <v>154</v>
-      </c>
-      <c r="C154" t="s">
-        <v>173</v>
-      </c>
-      <c r="D154" t="s">
-        <v>194</v>
-      </c>
-      <c r="E154" t="s">
-        <v>258</v>
-      </c>
-      <c r="F154" t="s">
-        <v>266</v>
-      </c>
-      <c r="G154" t="s">
-        <v>278</v>
-      </c>
-      <c r="H154" t="s">
-        <v>327</v>
-      </c>
-      <c r="I154" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
-      <c r="A155" s="1">
-        <v>153</v>
-      </c>
-      <c r="B155" t="s">
-        <v>155</v>
-      </c>
-      <c r="C155" t="s">
-        <v>169</v>
-      </c>
-      <c r="D155" t="s">
-        <v>194</v>
-      </c>
-      <c r="E155" t="s">
-        <v>259</v>
-      </c>
-      <c r="F155" t="s">
-        <v>267</v>
-      </c>
-      <c r="G155" t="s">
-        <v>279</v>
-      </c>
-      <c r="H155" t="s">
-        <v>327</v>
-      </c>
-      <c r="I155" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
-      <c r="A156" s="1">
-        <v>154</v>
-      </c>
-      <c r="B156" t="s">
-        <v>156</v>
-      </c>
-      <c r="C156" t="s">
-        <v>182</v>
-      </c>
-      <c r="D156" t="s">
-        <v>196</v>
-      </c>
-      <c r="E156" t="s">
-        <v>260</v>
-      </c>
-      <c r="F156" t="s">
-        <v>268</v>
-      </c>
-      <c r="G156" t="s">
-        <v>280</v>
-      </c>
-      <c r="H156" t="s">
-        <v>327</v>
-      </c>
-      <c r="I156" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
-      <c r="B157" t="s">
-        <v>157</v>
-      </c>
-      <c r="C157" t="s">
-        <v>169</v>
-      </c>
-      <c r="D157" t="s">
-        <v>197</v>
-      </c>
-      <c r="E157" t="s">
-        <v>260</v>
-      </c>
-      <c r="F157" t="s">
-        <v>268</v>
-      </c>
-      <c r="G157" t="s">
-        <v>280</v>
-      </c>
-      <c r="H157" t="s">
-        <v>327</v>
-      </c>
-      <c r="I157" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="B158" t="s">
-        <v>158</v>
-      </c>
-      <c r="C158" t="s">
-        <v>170</v>
-      </c>
-      <c r="D158" t="s">
-        <v>198</v>
-      </c>
-      <c r="E158" t="s">
-        <v>260</v>
-      </c>
-      <c r="F158" t="s">
-        <v>268</v>
-      </c>
-      <c r="G158" t="s">
-        <v>280</v>
-      </c>
-      <c r="H158" t="s">
-        <v>327</v>
-      </c>
-      <c r="I158" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
-      <c r="B159" t="s">
-        <v>159</v>
-      </c>
-      <c r="C159" t="s">
-        <v>172</v>
-      </c>
-      <c r="D159" t="s">
-        <v>194</v>
-      </c>
-      <c r="E159" t="s">
-        <v>261</v>
-      </c>
-      <c r="F159" t="s">
-        <v>269</v>
-      </c>
-      <c r="G159" t="s">
-        <v>281</v>
-      </c>
-      <c r="H159" t="s">
-        <v>327</v>
-      </c>
-      <c r="I159" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
-      <c r="B160" t="s">
-        <v>160</v>
-      </c>
-      <c r="C160" t="s">
-        <v>163</v>
-      </c>
-      <c r="D160" t="s">
-        <v>195</v>
-      </c>
-      <c r="E160" t="s">
-        <v>262</v>
-      </c>
-      <c r="F160" t="s">
-        <v>269</v>
-      </c>
-      <c r="G160" t="s">
-        <v>282</v>
-      </c>
-      <c r="H160" t="s">
-        <v>327</v>
-      </c>
-      <c r="I160" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="B161" t="s">
-        <v>161</v>
-      </c>
-      <c r="C161" t="s">
-        <v>173</v>
-      </c>
-      <c r="D161" t="s">
-        <v>196</v>
-      </c>
-      <c r="E161" t="s">
-        <v>253</v>
-      </c>
-      <c r="F161" t="s">
-        <v>270</v>
-      </c>
-      <c r="G161" t="s">
-        <v>318</v>
-      </c>
-      <c r="H161" t="s">
-        <v>327</v>
-      </c>
-      <c r="I161" t="s">
-        <v>334</v>
-      </c>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" s="1"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" s="1"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" s="1"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" s="1"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" s="1"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" s="1"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" s="1"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" s="1"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="1"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="1"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="1"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="1"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="1"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" s="1"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="1"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" s="1"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="1"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" s="1"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" s="1"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="1"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="1"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" s="1"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" s="1"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" s="1"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
